--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_96__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_96__Reeval_Halton_Modell_1.2.xlsx
@@ -5999,34 +5999,34 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.93721771240234</c:v>
+                  <c:v>94.93721008300781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.15950775146484</c:v>
+                  <c:v>95.15951538085938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.01435852050781</c:v>
+                  <c:v>94.01436614990234</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.70454406738281</c:v>
+                  <c:v>41.70459365844727</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>95.04673767089844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.24807739257812</c:v>
+                  <c:v>91.24806213378906</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.65038299560547</c:v>
+                  <c:v>86.65037536621094</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.21693420410156</c:v>
+                  <c:v>92.21694946289062</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.245370864868164</c:v>
@@ -6041,10 +6041,10 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.24355125427246</c:v>
+                  <c:v>17.24358749389648</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.27587890625</c:v>
+                  <c:v>56.27585983276367</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>75.83462524414062</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.17677307128906</c:v>
+                  <c:v>91.17676544189453</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.245370864868164</c:v>
@@ -6062,10 +6062,10 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.92604446411133</c:v>
+                  <c:v>48.92606735229492</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.63926315307617</c:v>
+                  <c:v>34.6392822265625</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.245370864868164</c:v>
@@ -6074,7 +6074,7 @@
                   <c:v>101.7092971801758</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>94.42900085449219</c:v>
+                  <c:v>94.42900848388672</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.245370864868164</c:v>
@@ -6089,7 +6089,7 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.25428771972656</c:v>
+                  <c:v>84.25428009033203</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.245370864868164</c:v>
@@ -6098,25 +6098,25 @@
                   <c:v>98.27627563476562</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63.60600280761719</c:v>
+                  <c:v>63.60598373413086</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.78733062744141</c:v>
+                  <c:v>97.78732299804688</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>76.12708282470703</c:v>
+                  <c:v>76.12709808349609</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>94.60663604736328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>88.16075134277344</c:v>
+                  <c:v>88.16075897216797</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.41591644287109</c:v>
+                  <c:v>49.41589736938477</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4.245370864868164</c:v>
@@ -6125,13 +6125,13 @@
                   <c:v>90.1044921875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83.71380615234375</c:v>
+                  <c:v>83.71381378173828</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88.34049224853516</c:v>
+                  <c:v>88.34048461914062</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>95.95069122314453</c:v>
@@ -6161,22 +6161,22 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>90.01318359375</c:v>
+                  <c:v>90.01317596435547</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.27396392822266</c:v>
+                  <c:v>84.27398681640625</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.15347671508789</c:v>
+                  <c:v>62.15349578857422</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.21385192871094</c:v>
+                  <c:v>92.2138671875</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>4.245370864868164</c:v>
@@ -6185,10 +6185,10 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.27730560302734</c:v>
+                  <c:v>92.27729034423828</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>79.87747192382812</c:v>
+                  <c:v>79.87748718261719</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>4.245370864868164</c:v>
@@ -6203,10 +6203,10 @@
                   <c:v>95.06883239746094</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.51403045654297</c:v>
+                  <c:v>95.5140380859375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>103.1873092651367</c:v>
+                  <c:v>103.1872863769531</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>4.245370864868164</c:v>
@@ -6215,13 +6215,13 @@
                   <c:v>56.71839904785156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>98.13684844970703</c:v>
+                  <c:v>98.13683319091797</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>98.01132965087891</c:v>
+                  <c:v>98.01132202148438</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>55.58343124389648</c:v>
+                  <c:v>55.58344268798828</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>4.245370864868164</c:v>
@@ -6239,7 +6239,7 @@
                   <c:v>78.60382080078125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43.89744567871094</c:v>
+                  <c:v>43.89748001098633</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>89.27142333984375</c:v>
@@ -6254,13 +6254,13 @@
                   <c:v>97.81696319580078</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>77.94333648681641</c:v>
+                  <c:v>77.94334411621094</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>83.30207061767578</c:v>
+                  <c:v>83.30208587646484</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>91.68047332763672</c:v>
@@ -6275,16 +6275,16 @@
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96.45103454589844</c:v>
+                  <c:v>96.4510498046875</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>4.245370864868164</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>61.37747192382812</c:v>
+                  <c:v>61.37748718261719</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.24630737304688</c:v>
+                  <c:v>94.24631500244141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>94.93721771240234</v>
+        <v>94.93721008300781</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>95.15950775146484</v>
+        <v>95.15951538085938</v>
       </c>
       <c r="G7">
         <v>116</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>94.01435852050781</v>
+        <v>94.01436614990234</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.70454406738281</v>
+        <v>41.70459365844727</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>91.24807739257812</v>
+        <v>91.24806213378906</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>86.65038299560547</v>
+        <v>86.65037536621094</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>92.21693420410156</v>
+        <v>92.21694946289062</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>17.24355125427246</v>
+        <v>17.24358749389648</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.27587890625</v>
+        <v>56.27585983276367</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>91.17677307128906</v>
+        <v>91.17676544189453</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>48.92604446411133</v>
+        <v>48.92606735229492</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>34.63926315307617</v>
+        <v>34.6392822265625</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>94.42900085449219</v>
+        <v>94.42900848388672</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>84.25428771972656</v>
+        <v>84.25428009033203</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>63.60600280761719</v>
+        <v>63.60598373413086</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>97.78733062744141</v>
+        <v>97.78732299804688</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>76.12708282470703</v>
+        <v>76.12709808349609</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>88.16075134277344</v>
+        <v>88.16075897216797</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>49.41591644287109</v>
+        <v>49.41589736938477</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>83.71380615234375</v>
+        <v>83.71381378173828</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>88.34049224853516</v>
+        <v>88.34048461914062</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>90.01318359375</v>
+        <v>90.01317596435547</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>84.27396392822266</v>
+        <v>84.27398681640625</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>62.15347671508789</v>
+        <v>62.15349578857422</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>92.21385192871094</v>
+        <v>92.2138671875</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>92.27730560302734</v>
+        <v>92.27729034423828</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>79.87747192382812</v>
+        <v>79.87748718261719</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>95.51403045654297</v>
+        <v>95.5140380859375</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>103.1873092651367</v>
+        <v>103.1872863769531</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>98.13684844970703</v>
+        <v>98.13683319091797</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>98.01132965087891</v>
+        <v>98.01132202148438</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>55.58343124389648</v>
+        <v>55.58344268798828</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>43.89744567871094</v>
+        <v>43.89748001098633</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>77.94333648681641</v>
+        <v>77.94334411621094</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>83.30207061767578</v>
+        <v>83.30208587646484</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>96.45103454589844</v>
+        <v>96.4510498046875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>61.37747192382812</v>
+        <v>61.37748718261719</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>94.24630737304688</v>
+        <v>94.24631500244141</v>
       </c>
     </row>
     <row r="102" spans="1:6">
